--- a/files/AgADP0IAAi2fIUk_products_rifa511 (1).xlsx
+++ b/files/AgADP0IAAi2fIUk_products_rifa511 (1).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rifa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\ginShopBot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E13D3-8A79-C147-9B3B-B2CB7305DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="44796" windowHeight="22956"/>
   </bookViews>
   <sheets>
     <sheet name="Товар" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
   <si>
     <t>Наличие</t>
   </si>
@@ -223,12 +222,6 @@
     <t>Z15Y000KY</t>
   </si>
   <si>
-    <t>MacBook Air 13 2022 M2 16GB 512GB \nMidnight🇷🇺 - 174.000₽\nStarlight🇷🇺 - 172.000₽\nSpace🇷🇺 - 172.000₽\nSilver🇷🇺 - 172.000₽</t>
-  </si>
-  <si>
-    <t>MacBook Air 13 2022 M2 16GB 512GB \nMidnight🇷🇺 - 172.000₽\nStarlight🇷🇺 - 172.000₽\nSpace🇷🇺 - 172.000₽\nSilver🇷🇺 - 172.000₽</t>
-  </si>
-  <si>
     <t>Z1610000C</t>
   </si>
   <si>
@@ -247,15 +240,6 @@
     <t>Z15Y000KY,Z15Y001MQ,Z15Y002N2,Z15Y000KZ,Z15Z0016G,Z15Z000WA,Z15Z0005E</t>
   </si>
   <si>
-    <t>Z160000KY,Z1610005E,Z1610006X,Z16100146,Z1610016R,Z160000KZ,Z1600040N,Z160000B1,Z15S000MW,Z15S0000P,Z15T0005G,Z15S002KX,Z15S000N0,Z15S002KS,Z15T001E6,Z15T0006Y,Z15S000D2,Z15W000KZ,Z15W000L3,Z15W001BD,Z15X000Z1,Z15W002AS,Z15W002B0,Z15X0005F,Z15Y000KY,Z15Y001MQ,Z15Y002N2,Z15Y000KZ,Z15Z0016G,Z15Z000WA,Z15Z0005E,Air 13,Аир 13,Айр 13,Air13,Аир13,Айр13,Air M2,Аир M2,Айр M2,Air М2,Аир М2,Айр М2,AirM2,АирM2,АйрM2,AirМ2,АирМ2,АйрМ2,Air 2022,Аир 2022,Айр 2022,Air2022,Аир2022,Айр2022</t>
-  </si>
-  <si>
-    <t>2013,2014,2015,2016,2018,2019,Duba,Дуба,ExWorks,прода,ориг,прозрач,чехол,чехл,pitak,питак,case,Leat,кожа,силик,silic,clear,короб,муляж,наклад,обмен,блок,питан,заряд,ремонт,запак,пром,плен,может,устан,проши,загру,замен,украл,стащил,найд,imei,серий,S/N,потер,прайс,t.me,гарант,заказ,поступ, бу ,б/у,б.у,состоян, для , до ,налич,00 ,уцен,вознаг,Sams,Самс,Asus,Асус,Poco,F5,Honor,Хонор,Xiao,Ксио,huawe,хуав,Realme,Redmi,note,12T,12Т,11T,11Т,Mi ,Google,Гугл,OnePlus,One Plus,Pixel,Пиксель,GoPro,ГоПро,Гоу,Go Pro,Го Про,MatePad,iMac,аймак,аимак,iPhone,айфон,аифон,iPad,планшет,айпад,аипад,tab,таб,2021,2023,M1,М1,M2 8,М2 8,8G,8 G,8Г,8 Г,8/512,8 512,15,24,64,96,128,256,1024,1t,1 t,1т,1 т,2048,2t,2 t,2т,2 т,i3,i5,i7,i9,MGN63,MGND3,MGN93,MGNE3,MGNA3,MGN73,MLY33,MLY13,MLXW3,MLXY3,MLY43,MLY23,MLXX3,MLY03</t>
-  </si>
-  <si>
-    <t>Z160000KY,Z1610005E,Z1610006X,Z16100146,Z1610016R,Z160000KZ,Z1600040N,Z160000B1,Z15S000MW,Z15S0000P,Z15T0005G,Z15S002KX,Z15S000N0,Z15S002KS,Z15T001E6,Z15T0006Y,Z15S000D2,Z15W000KZ,Z15W000L3,Z15W001BD,Z15X000Z1,Z15W002AS,Z15W002B0,Z15X0005F,Z15Y000KY,Z15Y001MQ,Z15Y002N2,Z15Y000KZ,Z15Z0016G,Z15Z000WA,Z15Z0005E</t>
-  </si>
-  <si>
     <t>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 1TB Space🇺🇸</t>
   </si>
   <si>
@@ -512,9 +496,6 @@
   </si>
   <si>
     <t>MU7J3J</t>
-  </si>
-  <si>
-    <t>Air-13-m2-16-512</t>
   </si>
   <si>
     <t>Z174000HF</t>
@@ -538,7 +519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -915,24 +896,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -972,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2</f>
         <v>1</v>
@@ -995,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1015,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4</f>
         <v>1</v>
@@ -1038,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1058,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6</f>
         <v>1</v>
@@ -1082,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1102,7 +1083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>A8</f>
         <v>1</v>
@@ -1127,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1144,10 +1125,10 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10</f>
         <v>1</v>
@@ -1171,7 +1152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1188,10 +1169,10 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1214,7 +1195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1231,10 +1212,10 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>A14</f>
         <v>1</v>
@@ -1258,7 +1239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1278,7 +1259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>A16</f>
         <v>1</v>
@@ -1302,12 +1283,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -1322,7 +1303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1345,7 +1326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1365,7 +1346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>A20</f>
         <v>1</v>
@@ -1389,7 +1370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1403,13 +1384,13 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>A22</f>
         <v>1</v>
@@ -1427,593 +1408,557 @@
         <v>172.000₽</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>A24</f>
         <v>1</v>
       </c>
       <c r="B25" t="str">
         <f>B24</f>
-        <v>Air-13-m2-16-512</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
+        <v>Z1610000C</v>
+      </c>
+      <c r="C25" t="str">
+        <f>C24</f>
+        <v>MacBook Air 13 2022 M2(10c) 24GB 1TB Midnight</v>
+      </c>
+      <c r="D25" t="str">
+        <f>D24</f>
+        <v>225.000₽</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>A26</f>
         <v>1</v>
       </c>
       <c r="B27" t="str">
         <f>B26</f>
-        <v>Z1610000C</v>
+        <v>Z174000HF</v>
       </c>
       <c r="C27" t="str">
         <f>C26</f>
-        <v>MacBook Air 13 2022 M2(10c) 24GB 1TB Midnight</v>
+        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 1TB Space🇺🇸</v>
       </c>
       <c r="D27" t="str">
         <f>D26</f>
-        <v>225.000₽</v>
+        <v>410.000₽</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>A28</f>
         <v>1</v>
       </c>
       <c r="B29" t="str">
         <f>B28</f>
-        <v>Z174000HF</v>
+        <v>Z177000NE</v>
       </c>
       <c r="C29" t="str">
         <f>C28</f>
-        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 1TB Space🇺🇸</v>
+        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 1TB Silver🇺🇸</v>
       </c>
       <c r="D29" t="str">
         <f>D28</f>
         <v>410.000₽</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>A30</f>
         <v>1</v>
       </c>
       <c r="B31" t="str">
         <f>B30</f>
-        <v>Z177000NE</v>
+        <v>MNXA3</v>
       </c>
       <c r="C31" t="str">
         <f>C30</f>
-        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 1TB Silver🇺🇸</v>
+        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 2TB Space🇺🇸</v>
       </c>
       <c r="D31" t="str">
         <f>D30</f>
-        <v>410.000₽</v>
+        <v>460.000₽</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>A32</f>
         <v>1</v>
       </c>
       <c r="B33" t="str">
         <f>B32</f>
-        <v>MNXA3</v>
+        <v>Z177000NN</v>
       </c>
       <c r="C33" t="str">
         <f>C32</f>
-        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 64GB 2TB Space🇺🇸</v>
+        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 96GB 1TB Space🇺🇸</v>
       </c>
       <c r="D33" t="str">
         <f>D32</f>
-        <v>460.000₽</v>
+        <v>440.000₽</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>A34</f>
         <v>1</v>
       </c>
       <c r="B35" t="str">
         <f>B34</f>
-        <v>Z177000NN</v>
+        <v>Z1760000J</v>
       </c>
       <c r="C35" t="str">
         <f>C34</f>
-        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 96GB 1TB Space🇺🇸</v>
+        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 96GB 8TB Space🇺🇸</v>
       </c>
       <c r="D35" t="str">
         <f>D34</f>
-        <v>440.000₽</v>
+        <v>685.000₽</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>A36</f>
         <v>1</v>
       </c>
       <c r="B37" t="str">
         <f>B36</f>
-        <v>Z1760000J</v>
+        <v>MKGP3RU</v>
       </c>
       <c r="C37" t="str">
         <f>C36</f>
-        <v>MacBook Pro 16 2023 M2 Max(38c GPU) 96GB 8TB Space🇺🇸</v>
+        <v>MacBook Pro 14 2021 M1 Pro(14c GPU) 16GB 512GB Space gray MKGP3RU🇷🇺</v>
       </c>
       <c r="D37" t="str">
         <f>D36</f>
-        <v>685.000₽</v>
+        <v>159.000₽</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="str">
-        <f>B38</f>
-        <v>MKGP3RU</v>
-      </c>
-      <c r="C39" t="str">
-        <f>C38</f>
-        <v>MacBook Pro 14 2021 M1 Pro(14c GPU) 16GB 512GB Space gray MKGP3RU🇷🇺</v>
-      </c>
-      <c r="D39" t="str">
-        <f>D38</f>
-        <v>159.000₽</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E43" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>136</v>
       </c>
       <c r="F43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>101</v>
       </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
         <v>138</v>
       </c>
-      <c r="F44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
       <c r="F49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
